--- a/F_dataset/DUD-E/AKT2/AKT2_prepare/AKT2_total.xlsx
+++ b/F_dataset/DUD-E/AKT2/AKT2_prepare/AKT2_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T244"/>
+  <dimension ref="A1:T212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12773,2694 +12773,6 @@
       <c r="S212" t="inlineStr"/>
       <c r="T212" t="inlineStr"/>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>CHEMBL3679634</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>1</v>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>N=c1ccc2nc(-c3ccc(C4(NC(=O)Cc5cccnc5)CCC4)cc3)c(-c3ccccc3)cc2n1C(N)=O</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>N=c1ccc2nc(-c3ccc(C4(NC(=O)Cc5cccnc5)CCC4)cc3)c(-c3ccccc3)cc2n1C(N)=O</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G213" t="n">
-        <v>528.62</v>
-      </c>
-      <c r="H213" t="n">
-        <v>3</v>
-      </c>
-      <c r="I213" t="n">
-        <v>4</v>
-      </c>
-      <c r="J213" t="n">
-        <v>6</v>
-      </c>
-      <c r="K213" t="n">
-        <v>6</v>
-      </c>
-      <c r="L213" t="n">
-        <v>5</v>
-      </c>
-      <c r="M213" t="n">
-        <v>126.75</v>
-      </c>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O213" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P213" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q213" t="n">
-        <v>200</v>
-      </c>
-      <c r="R213" t="inlineStr">
-        <is>
-          <t>CHEMBL3707653</t>
-        </is>
-      </c>
-      <c r="S213" t="inlineStr">
-        <is>
-          <t>Kinase Assay: Activated Akt isoforms and pleckstrin homology domain deletion constructs were assayed utilizing a GSK-derived biotinylated peptide substrate. The extend of peptide was determined by Homogeneous Time Resolved Fluorescence (HTRF) using a lanthanide chelate (Lance)-coupled monoclonal antibody specific for the phosphopeptide in combination with a streptavidin-linked allophycocyanin (SA-APC) fluorophore which will bind to the biotin moiety on the peptide.</t>
-        </is>
-      </c>
-      <c r="T213" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>CHEMBL3137336</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>1</v>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Cn1ncc(Cl)c1-c1cc(C(=O)N[C@H](CN)Cc2ccc(F)c(F)c2)oc1Cl</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Cn1ncc(Cl)c1-c1cc(C(=O)N[C@H](CN)Cc2ccc(F)c(F)c2)oc1Cl</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G214" t="n">
-        <v>429.25</v>
-      </c>
-      <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>4</v>
-      </c>
-      <c r="J214" t="n">
-        <v>6</v>
-      </c>
-      <c r="K214" t="n">
-        <v>3</v>
-      </c>
-      <c r="L214" t="n">
-        <v>3</v>
-      </c>
-      <c r="M214" t="n">
-        <v>86.08</v>
-      </c>
-      <c r="N214" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O214" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P214" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q214" t="n">
-        <v>1</v>
-      </c>
-      <c r="R214" t="inlineStr">
-        <is>
-          <t>CHEMBL4407364</t>
-        </is>
-      </c>
-      <c r="S214" t="inlineStr">
-        <is>
-          <t>Inhibition of human Akt2 by mobile shift assay</t>
-        </is>
-      </c>
-      <c r="T214" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>CHEMBL379849</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>1</v>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>O=C1/C(=C/c2ccccc2F)CNC/C1=C\c1ccccc1F</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>O=C1/C(=C/c2ccccc2F)CNC/C1=C\c1ccccc1F</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G215" t="n">
-        <v>311.33</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>2</v>
-      </c>
-      <c r="J215" t="n">
-        <v>2</v>
-      </c>
-      <c r="K215" t="n">
-        <v>3</v>
-      </c>
-      <c r="L215" t="n">
-        <v>2</v>
-      </c>
-      <c r="M215" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="N215" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O215" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P215" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q215" t="n">
-        <v>720</v>
-      </c>
-      <c r="R215" t="inlineStr">
-        <is>
-          <t>CHEMBL2344121</t>
-        </is>
-      </c>
-      <c r="S215" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant AKT2 (unknown origin) by FRET-based Z'-LYTE assay</t>
-        </is>
-      </c>
-      <c r="T215" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>CHEMBL2325737</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>1</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>NC1(C(=O)NC(CO)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>NC1(C(=O)NC(CO)c2ccc(Cl)cc2)CCN(c2ncnc3[nH]ccc23)CC1</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G216" t="n">
-        <v>414.9</v>
-      </c>
-      <c r="H216" t="n">
-        <v>4</v>
-      </c>
-      <c r="I216" t="n">
-        <v>6</v>
-      </c>
-      <c r="J216" t="n">
-        <v>5</v>
-      </c>
-      <c r="K216" t="n">
-        <v>4</v>
-      </c>
-      <c r="L216" t="n">
-        <v>3</v>
-      </c>
-      <c r="M216" t="n">
-        <v>120.16</v>
-      </c>
-      <c r="N216" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O216" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P216" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q216" t="n">
-        <v>46</v>
-      </c>
-      <c r="R216" t="inlineStr">
-        <is>
-          <t>CHEMBL2330885</t>
-        </is>
-      </c>
-      <c r="S216" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant Akt2 (unknown origin) using 5-FAM-labeled peptide as substrate after 1 hr by caliper off-chip incubation mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T216" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>CHEMBL603675</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>1</v>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1ccc(CC2(N)CCN(c3ccnc4[nH]ncc34)CC2)cc1</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1ccc(CC2(N)CCN(c3ccnc4[nH]ncc34)CC2)cc1</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G217" t="n">
-        <v>363.51</v>
-      </c>
-      <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>4</v>
-      </c>
-      <c r="J217" t="n">
-        <v>3</v>
-      </c>
-      <c r="K217" t="n">
-        <v>4</v>
-      </c>
-      <c r="L217" t="n">
-        <v>3</v>
-      </c>
-      <c r="M217" t="n">
-        <v>70.83</v>
-      </c>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O217" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P217" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q217" t="n">
-        <v>58</v>
-      </c>
-      <c r="R217" t="inlineStr">
-        <is>
-          <t>CHEMBL1072809</t>
-        </is>
-      </c>
-      <c r="S217" t="inlineStr">
-        <is>
-          <t>Inhibition of PKBbeta by radiometric filter binding assay</t>
-        </is>
-      </c>
-      <c r="T217" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>CHEMBL389176</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>1</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>NC(c1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>NC(c1ccccc1)c1ccc(-c2ncnc3[nH]cnc23)cc1</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G218" t="n">
-        <v>301.35</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>4</v>
-      </c>
-      <c r="J218" t="n">
-        <v>3</v>
-      </c>
-      <c r="K218" t="n">
-        <v>4</v>
-      </c>
-      <c r="L218" t="n">
-        <v>4</v>
-      </c>
-      <c r="M218" t="n">
-        <v>80.48</v>
-      </c>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O218" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P218" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q218" t="n">
-        <v>400</v>
-      </c>
-      <c r="R218" t="inlineStr">
-        <is>
-          <t>CHEMBL919346</t>
-        </is>
-      </c>
-      <c r="S218" t="inlineStr">
-        <is>
-          <t>Inhibition of PKBbeta by radiometric filter binding assay</t>
-        </is>
-      </c>
-      <c r="T218" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>CHEMBL228751</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>1</v>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3ccccc3)c[nH]1)C(=O)N2</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>NC(=O)Nc1ccc2c(c1)/C(=C/c1cc(-c3ccccc3)c[nH]1)C(=O)N2</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G219" t="n">
-        <v>344.37</v>
-      </c>
-      <c r="H219" t="n">
-        <v>4</v>
-      </c>
-      <c r="I219" t="n">
-        <v>2</v>
-      </c>
-      <c r="J219" t="n">
-        <v>3</v>
-      </c>
-      <c r="K219" t="n">
-        <v>4</v>
-      </c>
-      <c r="L219" t="n">
-        <v>3</v>
-      </c>
-      <c r="M219" t="n">
-        <v>100.01</v>
-      </c>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O219" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P219" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q219" t="n">
-        <v>21</v>
-      </c>
-      <c r="R219" t="inlineStr">
-        <is>
-          <t>CHEMBL889499</t>
-        </is>
-      </c>
-      <c r="S219" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2</t>
-        </is>
-      </c>
-      <c r="T219" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>CHEMBL3703130</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>1</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3nc4ccc(-c5ccccn5)cn4c3-c3ccccc3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3nc4ccc(-c5ccccn5)cn4c3-c3ccccc3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G220" t="n">
-        <v>416.53</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>3</v>
-      </c>
-      <c r="J220" t="n">
-        <v>4</v>
-      </c>
-      <c r="K220" t="n">
-        <v>6</v>
-      </c>
-      <c r="L220" t="n">
-        <v>5</v>
-      </c>
-      <c r="M220" t="n">
-        <v>56.21</v>
-      </c>
-      <c r="N220" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O220" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P220" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q220" t="n">
-        <v>462</v>
-      </c>
-      <c r="R220" t="inlineStr">
-        <is>
-          <t>CHEMBL3705585</t>
-        </is>
-      </c>
-      <c r="S220" t="inlineStr">
-        <is>
-          <t>TR-FRET Assay: For the assay 50 nl of a 100 fold concentrated solution of the test compound in DMSO was pipetted into a black low volume 384 well microtiter plate (Greiner Bio-One, Frickenhausen, Germany), 2 ul of a solution of Akt2 in assay buffer [50 mM TRIS/HCl pH 7.5, 5 mM MgCl2, 1 mM dithiothreitol, 0.02% (v/v) Triton X-100 (Sigma)] were added and the mixture was incubated for 15 min at 22 C. to allow prebinding of the test compounds to the enzyme before the start of the kinase reaction. Then the kinase reaction was started by the addition of 3 ul of a solution of adenosine-tri-phosphate (ATP, 16.7 uM=&gt;final conc. in the 5 ul assay volume is 10 uM) and substrate (1.67 uM=&gt;final conc. in the 5 ul assay volume is 1 uM) in assay buffer and the resulting mixture was incubated for a reaction time of 60 min at 22 C. The concentration of Akt2 in the assay was adjusted depending of the activity of the enzyme lot.</t>
-        </is>
-      </c>
-      <c r="T220" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>CHEMBL2012702</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>1</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Cc1c(NCCN(C)C)cc(Cl)cc1N1CCN(c2ncnc3[nH]nc(Br)c23)CC1</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Cc1c(NCCN(C)C)cc(Cl)cc1N1CCN(c2ncnc3[nH]nc(Br)c23)CC1</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G221" t="n">
-        <v>493.84</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>7</v>
-      </c>
-      <c r="J221" t="n">
-        <v>6</v>
-      </c>
-      <c r="K221" t="n">
-        <v>4</v>
-      </c>
-      <c r="L221" t="n">
-        <v>3</v>
-      </c>
-      <c r="M221" t="n">
-        <v>76.20999999999999</v>
-      </c>
-      <c r="N221" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O221" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P221" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q221" t="n">
-        <v>311</v>
-      </c>
-      <c r="R221" t="inlineStr">
-        <is>
-          <t>CHEMBL2014741</t>
-        </is>
-      </c>
-      <c r="S221" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt2</t>
-        </is>
-      </c>
-      <c r="T221" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>CHEMBL258696</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>1</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>CCN(CC)CCNC(=O)c1ccc2nc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc2c1</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>CCN(CC)CCNC(=O)c1ccc2nc(-c3ccccc3)c(-c3ccc(CN4CCC(n5c(=O)[nH]c6ccccc65)CC4)cc3)nc2c1</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G222" t="n">
-        <v>653.83</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>6</v>
-      </c>
-      <c r="J222" t="n">
-        <v>11</v>
-      </c>
-      <c r="K222" t="n">
-        <v>7</v>
-      </c>
-      <c r="L222" t="n">
-        <v>6</v>
-      </c>
-      <c r="M222" t="n">
-        <v>99.15000000000001</v>
-      </c>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O222" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P222" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q222" t="n">
-        <v>212</v>
-      </c>
-      <c r="R222" t="inlineStr">
-        <is>
-          <t>CHEMBL937418</t>
-        </is>
-      </c>
-      <c r="S222" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt2</t>
-        </is>
-      </c>
-      <c r="T222" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>CHEMBL383264</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>1</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1c[nH]c2ccccc12</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnccc3c2)c1)Cc1c[nH]c2ccccc12</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G223" t="n">
-        <v>394.48</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>4</v>
-      </c>
-      <c r="J223" t="n">
-        <v>6</v>
-      </c>
-      <c r="K223" t="n">
-        <v>5</v>
-      </c>
-      <c r="L223" t="n">
-        <v>5</v>
-      </c>
-      <c r="M223" t="n">
-        <v>76.81999999999999</v>
-      </c>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O223" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P223" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q223" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="R223" t="inlineStr">
-        <is>
-          <t>CHEMBL861321</t>
-        </is>
-      </c>
-      <c r="S223" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt2 at 5 uM ATP</t>
-        </is>
-      </c>
-      <c r="T223" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>CHEMBL493911</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>1</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(OC3CCNCC3)c21</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2cncc(OC3CCNCC3)c21</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G224" t="n">
-        <v>329.36</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>8</v>
-      </c>
-      <c r="J224" t="n">
-        <v>4</v>
-      </c>
-      <c r="K224" t="n">
-        <v>4</v>
-      </c>
-      <c r="L224" t="n">
-        <v>3</v>
-      </c>
-      <c r="M224" t="n">
-        <v>116.91</v>
-      </c>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O224" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P224" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q224" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R224" t="inlineStr">
-        <is>
-          <t>CHEMBL1028093</t>
-        </is>
-      </c>
-      <c r="S224" t="inlineStr">
-        <is>
-          <t>Inhibition of human AKT2</t>
-        </is>
-      </c>
-      <c r="T224" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>CHEMBL608533</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>1</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>CO[C@@H]1[C@H](N(C)C(=O)c2ccccc2)C[C@H]2O[C@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G225" t="n">
-        <v>570.65</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>4</v>
-      </c>
-      <c r="J225" t="n">
-        <v>3</v>
-      </c>
-      <c r="K225" t="n">
-        <v>9</v>
-      </c>
-      <c r="L225" t="n">
-        <v>6</v>
-      </c>
-      <c r="M225" t="n">
-        <v>77.73</v>
-      </c>
-      <c r="N225" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O225" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P225" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q225" t="n">
-        <v>780</v>
-      </c>
-      <c r="R225" t="inlineStr">
-        <is>
-          <t>CHEMBL1244720</t>
-        </is>
-      </c>
-      <c r="S225" t="inlineStr">
-        <is>
-          <t>Binding affinity to AKT2</t>
-        </is>
-      </c>
-      <c r="T225" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>CHEMBL3732044</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>0</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G226" t="n">
-        <v>282.41</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>4</v>
-      </c>
-      <c r="J226" t="n">
-        <v>5</v>
-      </c>
-      <c r="K226" t="n">
-        <v>2</v>
-      </c>
-      <c r="L226" t="n">
-        <v>0</v>
-      </c>
-      <c r="M226" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="N226" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O226" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P226" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q226" t="n">
-        <v>8</v>
-      </c>
-      <c r="R226" t="inlineStr">
-        <is>
-          <t>CHEMBL3734458</t>
-        </is>
-      </c>
-      <c r="S226" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human AKT2 using fluorescein-labeled peptide as substrate by fluorescence-electrophoretic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T226" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>CHEMBL2420903</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>0</v>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>COC(=O)C1CCC2(CCN(c3ncnc4[nH]cnc34)CC2)NC1</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G227" t="n">
-        <v>330.39</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>7</v>
-      </c>
-      <c r="J227" t="n">
-        <v>2</v>
-      </c>
-      <c r="K227" t="n">
-        <v>4</v>
-      </c>
-      <c r="L227" t="n">
-        <v>2</v>
-      </c>
-      <c r="M227" t="n">
-        <v>96.03</v>
-      </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P227" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q227" t="n">
-        <v>19</v>
-      </c>
-      <c r="R227" t="inlineStr">
-        <is>
-          <t>CHEMBL2424336</t>
-        </is>
-      </c>
-      <c r="S227" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T227" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>CHEMBL2420923</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>0</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>O=S(=O)(c1cccc2cnccc12)N1CCCC12CCNCC2</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>O=S(=O)(c1cccc2cnccc12)N1CCCC12CCNCC2</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G228" t="n">
-        <v>331.44</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>4</v>
-      </c>
-      <c r="J228" t="n">
-        <v>2</v>
-      </c>
-      <c r="K228" t="n">
-        <v>4</v>
-      </c>
-      <c r="L228" t="n">
-        <v>2</v>
-      </c>
-      <c r="M228" t="n">
-        <v>62.3</v>
-      </c>
-      <c r="N228" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O228" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P228" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q228" t="n">
-        <v>13</v>
-      </c>
-      <c r="R228" t="inlineStr">
-        <is>
-          <t>CHEMBL2424336</t>
-        </is>
-      </c>
-      <c r="S228" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T228" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>CHEMBL160586</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>0</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2[N+](=O)[O-])=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2[N+](=O)[O-])=C1Nc1ccc(Cl)c(C(=O)O)c1</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G229" t="n">
-        <v>387.74</v>
-      </c>
-      <c r="H229" t="n">
-        <v>3</v>
-      </c>
-      <c r="I229" t="n">
-        <v>7</v>
-      </c>
-      <c r="J229" t="n">
-        <v>5</v>
-      </c>
-      <c r="K229" t="n">
-        <v>3</v>
-      </c>
-      <c r="L229" t="n">
-        <v>2</v>
-      </c>
-      <c r="M229" t="n">
-        <v>138.64</v>
-      </c>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O229" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P229" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q229" t="n">
-        <v>0</v>
-      </c>
-      <c r="R229" t="inlineStr">
-        <is>
-          <t>CHEMBL768272</t>
-        </is>
-      </c>
-      <c r="S229" t="inlineStr">
-        <is>
-          <t>Inhibition of Protein kinase B,beta at 10 uM</t>
-        </is>
-      </c>
-      <c r="T229" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>CHEMBL48082</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>0</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Nc1nccc(-c2c[nH]c3ccccc23)n1</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Nc1nccc(-c2c[nH]c3ccccc23)n1</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G230" t="n">
-        <v>210.24</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>3</v>
-      </c>
-      <c r="J230" t="n">
-        <v>1</v>
-      </c>
-      <c r="K230" t="n">
-        <v>3</v>
-      </c>
-      <c r="L230" t="n">
-        <v>3</v>
-      </c>
-      <c r="M230" t="n">
-        <v>67.59</v>
-      </c>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O230" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P230" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q230" t="n">
-        <v>0</v>
-      </c>
-      <c r="R230" t="inlineStr">
-        <is>
-          <t>CHEMBL3599520</t>
-        </is>
-      </c>
-      <c r="S230" t="inlineStr">
-        <is>
-          <t>Inhibition of PKBbeta (unknown origin) at 0.5 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T230" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>CHEMBL1241578</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>0</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(-c2ccc(Br)c(O)c2)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>CC(C)n1nc(-c2ccc(Br)c(O)c2)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G231" t="n">
-        <v>348.2</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>5</v>
-      </c>
-      <c r="J231" t="n">
-        <v>2</v>
-      </c>
-      <c r="K231" t="n">
-        <v>3</v>
-      </c>
-      <c r="L231" t="n">
-        <v>3</v>
-      </c>
-      <c r="M231" t="n">
-        <v>89.84999999999999</v>
-      </c>
-      <c r="N231" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O231" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P231" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q231" t="n">
-        <v>1</v>
-      </c>
-      <c r="R231" t="inlineStr">
-        <is>
-          <t>CHEMBL1243989</t>
-        </is>
-      </c>
-      <c r="S231" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 1 uM after 60 mins by FRET assay in presence of 10 uM ATP</t>
-        </is>
-      </c>
-      <c r="T231" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>CHEMBL4782133</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>0</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>CN(C)C(=O)c1ccc(Oc2nc(-c3cnc(N)s3)nc(N3CCOCC3)n2)cc1</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>CN(C)C(=O)c1ccc(Oc2nc(-c3cnc(N)s3)nc(N3CCOCC3)n2)cc1</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G232" t="n">
-        <v>427.49</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>9</v>
-      </c>
-      <c r="J232" t="n">
-        <v>5</v>
-      </c>
-      <c r="K232" t="n">
-        <v>4</v>
-      </c>
-      <c r="L232" t="n">
-        <v>3</v>
-      </c>
-      <c r="M232" t="n">
-        <v>119.59</v>
-      </c>
-      <c r="N232" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O232" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P232" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q232" t="n">
-        <v>0</v>
-      </c>
-      <c r="R232" t="inlineStr">
-        <is>
-          <t>CHEMBL4701763</t>
-        </is>
-      </c>
-      <c r="S232" t="inlineStr">
-        <is>
-          <t>Inhibition of human AKT2 at 1 uM using fluorescently labeled peptide substrate measured after 3 hrs by microfluidic mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T232" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>CHEMBL1077739</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>0</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>O=C(Nc1ccccc1Cl)c1cnc2ccc(C3CCNCC3)cn12</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>O=C(Nc1ccccc1Cl)c1cnc2ccc(C3CCNCC3)cn12</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G233" t="n">
-        <v>354.84</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>3</v>
-      </c>
-      <c r="J233" t="n">
-        <v>3</v>
-      </c>
-      <c r="K233" t="n">
-        <v>4</v>
-      </c>
-      <c r="L233" t="n">
-        <v>3</v>
-      </c>
-      <c r="M233" t="n">
-        <v>58.43</v>
-      </c>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P233" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R233" t="inlineStr">
-        <is>
-          <t>CHEMBL1111287</t>
-        </is>
-      </c>
-      <c r="S233" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 5 uM</t>
-        </is>
-      </c>
-      <c r="T233" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>CHEMBL84558</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>0</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>CCCOc1ccc(/C=C2\SC(=O)NC2=O)cc1</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>CCCOc1ccc(/C=C2\SC(=O)NC2=O)cc1</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G234" t="n">
-        <v>263.32</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>4</v>
-      </c>
-      <c r="J234" t="n">
-        <v>4</v>
-      </c>
-      <c r="K234" t="n">
-        <v>2</v>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="N234" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P234" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R234" t="inlineStr">
-        <is>
-          <t>CHEMBL1012667</t>
-        </is>
-      </c>
-      <c r="S234" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 5 uM</t>
-        </is>
-      </c>
-      <c r="T234" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>CHEMBL1170749</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>0</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>OCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>OCc1ccc(-c2cn3c(-c4cn[nH]c4)cnc3cn2)cc1</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G235" t="n">
-        <v>291.31</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>4</v>
-      </c>
-      <c r="J235" t="n">
-        <v>3</v>
-      </c>
-      <c r="K235" t="n">
-        <v>4</v>
-      </c>
-      <c r="L235" t="n">
-        <v>4</v>
-      </c>
-      <c r="M235" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="N235" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O235" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P235" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q235" t="n">
-        <v>-8</v>
-      </c>
-      <c r="R235" t="inlineStr">
-        <is>
-          <t>CHEMBL1173998</t>
-        </is>
-      </c>
-      <c r="S235" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 10 uM by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T235" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>CHEMBL1813788</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>0</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Cc1cc2nn(-c3ccccc3)c(N)c2c(=O)[nH]1</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Cc1cc2nn(-c3ccccc3)c(N)c2c(=O)[nH]1</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G236" t="n">
-        <v>240.27</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>3</v>
-      </c>
-      <c r="J236" t="n">
-        <v>1</v>
-      </c>
-      <c r="K236" t="n">
-        <v>3</v>
-      </c>
-      <c r="L236" t="n">
-        <v>3</v>
-      </c>
-      <c r="M236" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="N236" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O236" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P236" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q236" t="n">
-        <v>1</v>
-      </c>
-      <c r="R236" t="inlineStr">
-        <is>
-          <t>CHEMBL1815736</t>
-        </is>
-      </c>
-      <c r="S236" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT2 at 30 uM by microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T236" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>CHEMBL185962</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>0</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Nc1nonc1-c1nc2cnccc2n1C1CC1</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G237" t="n">
-        <v>242.24</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>6</v>
-      </c>
-      <c r="J237" t="n">
-        <v>2</v>
-      </c>
-      <c r="K237" t="n">
-        <v>4</v>
-      </c>
-      <c r="L237" t="n">
-        <v>3</v>
-      </c>
-      <c r="M237" t="n">
-        <v>95.65000000000001</v>
-      </c>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O237" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P237" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q237" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R237" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S237" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T237" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>CHEMBL1880739</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>0</v>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccc(I)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccc(I)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G238" t="n">
-        <v>520.95</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>2</v>
-      </c>
-      <c r="J238" t="n">
-        <v>1</v>
-      </c>
-      <c r="K238" t="n">
-        <v>3</v>
-      </c>
-      <c r="L238" t="n">
-        <v>2</v>
-      </c>
-      <c r="M238" t="n">
-        <v>49.33</v>
-      </c>
-      <c r="N238" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O238" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P238" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q238" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R238" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S238" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T238" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>CHEMBL188247</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>0</v>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Cc1ccc2c(-c3ccnc(Nc4ccc5c(c4)OCCO5)n3)c(-c3ccc(C(F)(F)F)cc3)nn2n1</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Cc1ccc2c(-c3ccnc(Nc4ccc5c(c4)OCCO5)n3)c(-c3ccc(C(F)(F)F)cc3)nn2n1</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G239" t="n">
-        <v>504.47</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>7</v>
-      </c>
-      <c r="J239" t="n">
-        <v>4</v>
-      </c>
-      <c r="K239" t="n">
-        <v>6</v>
-      </c>
-      <c r="L239" t="n">
-        <v>5</v>
-      </c>
-      <c r="M239" t="n">
-        <v>86.45999999999999</v>
-      </c>
-      <c r="N239" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O239" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P239" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q239" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R239" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S239" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T239" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>CHEMBL1909351</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>0</v>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(Nc2cc(-c3ccc(F)cc3)n[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G240" t="n">
-        <v>332.36</v>
-      </c>
-      <c r="H240" t="n">
-        <v>3</v>
-      </c>
-      <c r="I240" t="n">
-        <v>4</v>
-      </c>
-      <c r="J240" t="n">
-        <v>4</v>
-      </c>
-      <c r="K240" t="n">
-        <v>3</v>
-      </c>
-      <c r="L240" t="n">
-        <v>3</v>
-      </c>
-      <c r="M240" t="n">
-        <v>100.87</v>
-      </c>
-      <c r="N240" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P240" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q240" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="R240" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S240" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T240" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>CHEMBL1909354</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>0</v>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2ccccn2)cc(C)c1/C=C/c1cncc(-c2nn[nH]n2)c1</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Cc1cc(-c2ccccn2)cc(C)c1/C=C/c1cncc(-c2nn[nH]n2)c1</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G241" t="n">
-        <v>354.42</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>5</v>
-      </c>
-      <c r="J241" t="n">
-        <v>4</v>
-      </c>
-      <c r="K241" t="n">
-        <v>4</v>
-      </c>
-      <c r="L241" t="n">
-        <v>4</v>
-      </c>
-      <c r="M241" t="n">
-        <v>80.23999999999999</v>
-      </c>
-      <c r="N241" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O241" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P241" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q241" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="R241" t="inlineStr">
-        <is>
-          <t>CHEMBL1961876</t>
-        </is>
-      </c>
-      <c r="S241" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T241" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>CHEMBL231013</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>0</v>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2ccncc2)cc1C(N)=O</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2ccncc2)cc1C(N)=O</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G242" t="n">
-        <v>228.25</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>3</v>
-      </c>
-      <c r="J242" t="n">
-        <v>3</v>
-      </c>
-      <c r="K242" t="n">
-        <v>2</v>
-      </c>
-      <c r="L242" t="n">
-        <v>2</v>
-      </c>
-      <c r="M242" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="N242" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O242" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P242" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q242" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R242" t="inlineStr">
-        <is>
-          <t>CHEMBL1961877</t>
-        </is>
-      </c>
-      <c r="S242" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T242" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>CHEMBL318728</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>0</v>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>c1ccc(Nc2ncc(-c3ccccc3)o2)cc1</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>c1ccc(Nc2ncc(-c3ccccc3)o2)cc1</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G243" t="n">
-        <v>236.27</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>3</v>
-      </c>
-      <c r="J243" t="n">
-        <v>3</v>
-      </c>
-      <c r="K243" t="n">
-        <v>3</v>
-      </c>
-      <c r="L243" t="n">
-        <v>3</v>
-      </c>
-      <c r="M243" t="n">
-        <v>38.06</v>
-      </c>
-      <c r="N243" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P243" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q243" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R243" t="inlineStr">
-        <is>
-          <t>CHEMBL1961876</t>
-        </is>
-      </c>
-      <c r="S243" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T243" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>CHEMBL505187</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>0</v>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2cccc(NC(=O)Nc3ccc(OCc4ccccc4)cc3)c2)n1</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>CCn1cc(-c2ccnc3[nH]ccc23)c(-c2cccc(NC(=O)Nc3ccc(OCc4ccccc4)cc3)c2)n1</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G244" t="n">
-        <v>528.62</v>
-      </c>
-      <c r="H244" t="n">
-        <v>3</v>
-      </c>
-      <c r="I244" t="n">
-        <v>4</v>
-      </c>
-      <c r="J244" t="n">
-        <v>8</v>
-      </c>
-      <c r="K244" t="n">
-        <v>6</v>
-      </c>
-      <c r="L244" t="n">
-        <v>6</v>
-      </c>
-      <c r="M244" t="n">
-        <v>96.86</v>
-      </c>
-      <c r="N244" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O244" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P244" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q244" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R244" t="inlineStr">
-        <is>
-          <t>CHEMBL1961876</t>
-        </is>
-      </c>
-      <c r="S244" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT2 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T244" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
